--- a/数据整理/stocks/A股/创业板/300630-普利制药.xlsx
+++ b/数据整理/stocks/A股/创业板/300630-普利制药.xlsx
@@ -451,547 +451,737 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>010104</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>52.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2320</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0304</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>62.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4254</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>260103</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城动力平衡混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4000</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>006648</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>汇安多因子混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>94.68</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2.40</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3684</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2538</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2512</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>63.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2065</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1584</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009598</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002133</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>006649</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>汇安多因子混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>94.68</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2.40</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>260103</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城动力平衡混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>69.90</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005550</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇安成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010105</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>52.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>010026</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>广发聚瑞混合C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>88.56</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>4.99</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>270021</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发聚瑞混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>88.56</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010104</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>景顺长城消费精选混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>52.33</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005551</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇安成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010105</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>景顺长城消费精选混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>52.33</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>260112</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>景顺长城能源基建混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>63.93</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>161838</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>银华创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>62.18</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>000586</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>景顺长城中小板创业板精选股票</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>550001</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>信诚四季红混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>86.26</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>180020</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>银华成长先锋混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>78.07</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002133</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>广发鑫益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>90.85</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005112</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>银华中证全指医药卫生指数增强</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>92.20</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005550</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>汇安成长优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>93.13</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005551</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>汇安成长优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>93.13</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>006209</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中信保诚新蓝筹灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>89.57</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009598</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>77.24</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1001,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1022,15 +1212,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005112</t>
+          <t>008131</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华中证全指医药卫生指数增强</t>
+          <t>景顺长城竞争优势混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>59.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1506</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>260103</t>
+          <t>010104</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城动力平衡混合</t>
+          <t>景顺长城消费精选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>68.02</t>
+          <t>37.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9924</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1108,15 +1328,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>24.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>83.92</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.40</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8310</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006209</t>
+          <t>009098</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中信保诚新蓝筹灵活配置混合</t>
+          <t>景顺长城价值领航两年持有期混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>83.91</t>
+          <t>22.94</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>69.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6951</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008060</t>
+          <t>260103</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>景顺长城价值边际灵活配置混合</t>
+          <t>景顺长城动力平衡混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>77.74</t>
+          <t>14.64</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>68.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5754</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1182,25 +1432,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005550</t>
+          <t>008850</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇安成长优选灵活配置混合A</t>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.54</t>
+          <t>17.34</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>70.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5289</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005551</t>
+          <t>161838</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇安成长优选灵活配置混合C</t>
+          <t>银华创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.54</t>
+          <t>9.97</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>95.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5025</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008850</t>
+          <t>010348</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+          <t>景顺长城泰保三个月定期开放混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>70.29</t>
+          <t>9.75</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4729</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>161838</t>
+          <t>008060</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>银华创业板两年定期开放混合</t>
+          <t>景顺长城价值边际灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>95.86</t>
+          <t>9.93</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>77.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3982</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1304,15 +1594,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>60.41</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>3.95</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3081</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>260115</t>
+          <t>006648</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>景顺长城中小盘混合</t>
+          <t>汇安多因子混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>10.16</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2885</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000586</t>
+          <t>550001</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>景顺长城中小板创业板精选股票</t>
+          <t>信诚四季红混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>6.23</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>8.13</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2579</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010104</t>
+          <t>000586</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>景顺长城消费精选混合A</t>
+          <t>景顺长城中小板创业板精选股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>90.60</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2553</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010105</t>
+          <t>180020</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>景顺长城消费精选混合C</t>
+          <t>银华成长先锋混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>90.60</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1434,25 +1774,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>006648</t>
+          <t>006649</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>汇安多因子混合A</t>
+          <t>汇安多因子混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>93.83</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>2.84</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>006649</t>
+          <t>005112</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>汇安多因子混合C</t>
+          <t>银华中证全指医药卫生指数增强</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>6</v>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010348</t>
+          <t>006209</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>景顺长城泰保三个月定期开放混合</t>
+          <t>中信保诚新蓝筹灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>91.62</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010434</t>
+          <t>260115</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>红土创新医疗保健股票</t>
+          <t>景顺长城中小盘混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>81.44</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>6</v>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>550001</t>
+          <t>010105</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>信诚四季红混合</t>
+          <t>景顺长城消费精选混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>87.55</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1574,25 +1964,35 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>180020</t>
+          <t>009502</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>银华成长先锋混合</t>
+          <t>国寿安保创新医药股票A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>79.48</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
+          <t>82.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1602,25 +2002,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>009098</t>
+          <t>005550</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>景顺长城价值领航两年持有期混合</t>
+          <t>汇安成长优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>69.93</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>008131</t>
+          <t>005551</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>景顺长城竞争优势混合</t>
+          <t>汇安成长优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>91.98</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>8</v>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>009502</t>
+          <t>010434</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>国寿安保创新医药股票A</t>
+          <t>红土创新医疗保健股票</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>82.13</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>10</v>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -1696,15 +2126,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>82.13</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>3.20</t>
         </is>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300630-普利制药.xlsx
+++ b/数据整理/stocks/A股/创业板/300630-普利制药.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2151,4 +2152,1428 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008131</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6793</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010104</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3330</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008712</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城品质成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3950</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0323</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9831</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9473</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>260103</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城动力平衡混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8204</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7424</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6178</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010348</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城泰保三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5811</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>871003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发资管价值增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5738</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011189</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信智汇优选一年持有期混合（MOM）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>27.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>48.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4717</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>62.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4581</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4037</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3424</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3070</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2505</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1469</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>70.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>60.43</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>69.24</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>45.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010105</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>210007</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>23.85</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007254</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发均衡价值混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>69.24</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001535</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>76.23</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002196</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>23.85</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>81.04</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007945</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>76.23</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300630-普利制药.xlsx
+++ b/数据整理/stocks/A股/创业板/300630-普利制药.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3576,4 +3577,1730 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008131</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5325</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010104</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6132</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008712</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城品质成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1874</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8840</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>260103</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城动力平衡混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>69.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7224</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6976</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010348</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城泰保三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5124</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>61.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4861</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4437</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>65.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4250</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011189</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信智汇优选一年持有期混合（MOM）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>49.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3939</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>60.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3673</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2965</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2602</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2203</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012069</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>31.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.07</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2151</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2059</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>61.10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>45.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1793</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1752</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>75.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010105</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010043</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>26.57</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012070</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>20.07</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300630-普利制药.xlsx
+++ b/数据整理/stocks/A股/创业板/300630-普利制药.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5303,4 +5304,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>44</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>36</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300630-普利制药.xlsx
+++ b/数据整理/stocks/A股/创业板/300630-普利制药.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5312,7 +5313,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5323,17 +5324,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5343,14 +5364,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>44</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.31</v>
+          <t>008131</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8452</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -5359,14 +5402,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>36</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.98</v>
+          <t>010104</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5940</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -5375,14 +5440,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.88</v>
+          <t>008712</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城品质成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3265</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -5391,13 +5478,2355 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0539</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010348</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城泰保三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0057</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>37.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9812</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9688</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9347</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>260103</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城动力平衡混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>68.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7990</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010393</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7780</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011136</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发盛兴混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>29.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7707</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011371</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6913</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5876</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4716</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011189</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信智汇优选一年持有期混合（MOM）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>57.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4715</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4606</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000541</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3845</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.82</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>59.75</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3635</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004895</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华商鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3306</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3253</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2937</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2795</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2344</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001915</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>宝盈医疗健康沪港深股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2280</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2272</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2042</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010394</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1997</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1898</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1746</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005109</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011137</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发盛兴混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010105</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011886</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005110</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011372</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005280</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>安信稳健阿尔法定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011887</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004641</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>62</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>44</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>36</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>18</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.95</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300630-普利制药.xlsx
+++ b/数据整理/stocks/A股/创业板/300630-普利制药.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7725,7 +7726,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7736,17 +7737,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7756,14 +7777,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>62</v>
-      </c>
-      <c r="D2" t="n">
-        <v>21.04</v>
+          <t>008131</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8419</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -7772,14 +7815,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>44</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.31</v>
+          <t>010104</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1506</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -7788,14 +7853,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>36</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.98</v>
+          <t>008712</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城品质成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9473</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -7804,14 +7891,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>24</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.88</v>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8314</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -7820,13 +7929,1877 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8263</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010348</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城泰保三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7958</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7379</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>260103</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城动力平衡混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6315</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010393</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5457</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4266</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011189</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信智汇优选一年持有期混合（MOM）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>54.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3720</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000541</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3537</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>871003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发资管价值增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3275</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011371</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2733</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2550</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2079</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2070</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004895</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1903</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>72.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1605</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013956</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华商医药消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013867</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇安优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1304</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009598</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1078</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010394</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0993</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005914</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>景顺长城智能生活混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010105</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011372</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011886</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013957</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华商医药消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013868</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇安优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011887</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>62</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>44</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>36</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>18</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.95</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300630-普利制药.xlsx
+++ b/数据整理/stocks/A股/创业板/300630-普利制药.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9682,7 +9683,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9693,17 +9694,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9713,14 +9734,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>50</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.83</v>
+          <t>008131</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1306</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -9729,14 +9772,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>62</v>
-      </c>
-      <c r="D3" t="n">
-        <v>21.04</v>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8962</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -9745,14 +9810,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>44</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.31</v>
+          <t>010348</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城泰保三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7557</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -9761,14 +9848,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>36</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16.98</v>
+          <t>010104</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6309</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -9777,14 +9886,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>24</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.88</v>
+          <t>008712</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城品质成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5562</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -9793,13 +9924,1361 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>260103</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城动力平衡混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4171</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2300</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2267</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2083</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013867</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇安优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1653</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1469</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002133</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>162717</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001115</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发聚安混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>28.49</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013711</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010105</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013920</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001116</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发聚安混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>28.49</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013868</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇安优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013921</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>44</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>36</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16.98</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>18</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.95</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300630-普利制药.xlsx
+++ b/数据整理/stocks/A股/创业板/300630-普利制药.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>6.18</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>12.83</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>21.04</v>
+        <v>12.83</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D5" t="n">
-        <v>13.31</v>
+        <v>21.04</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D6" t="n">
-        <v>16.98</v>
+        <v>13.31</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D7" t="n">
-        <v>10.88</v>
+        <v>16.98</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>24</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10.88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>18</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>4.95</v>
       </c>
     </row>
@@ -600,6 +617,974 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008131</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6995</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2878</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>260103</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城动力平衡混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>68.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2569</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1794</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1078</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013867</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002133</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013920</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013868</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇安优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013921</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2061,7 +3046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4017,7 +5002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6429,7 +7414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8155,7 +9140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9579,7 +10564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10547,7 +11532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300630-普利制药.xlsx
+++ b/数据整理/stocks/A股/创业板/300630-普利制药.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>2.37</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>6.18</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D4" t="n">
-        <v>12.83</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>21.04</v>
+        <v>12.83</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D6" t="n">
-        <v>13.31</v>
+        <v>21.04</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D7" t="n">
-        <v>16.98</v>
+        <v>13.31</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D8" t="n">
-        <v>10.88</v>
+        <v>16.98</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,770 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>24</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10.88</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>18</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>4.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010104</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>52.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2320</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0304</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>62.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4254</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>260103</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城动力平衡混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4000</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3684</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2538</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2512</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>63.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2065</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1584</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009598</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002133</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005550</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇安成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010105</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>52.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005551</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇安成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1374,784 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6529</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2175</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012342</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发瑞泽精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1381</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002133</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012343</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发瑞泽精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>42.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011082</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>42.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1584,7 +3119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3046,7 +4581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5002,7 +6537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7414,7 +8949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9140,7 +10675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10564,7 +12099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11530,744 +13065,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010104</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城消费精选混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>50.70</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>52.33</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2320</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>270021</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发聚瑞混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20.65</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.56</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.0304</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161838</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银华创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10.77</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>62.18</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4254</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>260103</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城动力平衡混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>16.26</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>69.90</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4000</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006648</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇安多因子混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>15.35</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3684</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>550001</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>信诚四季红混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.11</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>86.26</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2538</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000586</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>景顺长城中小板创业板精选股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2512</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>260112</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>景顺长城能源基建混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>8.75</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>63.93</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2065</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>180020</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>银华成长先锋混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>78.07</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1584</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009598</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>77.24</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1335</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006209</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中信保诚新蓝筹灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>89.57</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1092</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002133</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>广发鑫益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>90.85</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1079</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005112</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>银华中证全指医药卫生指数增强</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.20</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1003</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006649</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>汇安多因子混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0924</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005550</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>汇安成长优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.13</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0440</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>010105</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>景顺长城消费精选混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>52.33</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0216</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>010026</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>广发聚瑞混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>88.56</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0115</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005551</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>汇安成长优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.13</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>